--- a/natmiOut/OldD2/LR-pairs_lrc2p/Rbp4-Stra6.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Rbp4-Stra6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,13 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Rbp4</t>
   </si>
   <si>
     <t>Stra6</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.54718625315792</v>
+        <v>4.653109333333333</v>
       </c>
       <c r="H2">
-        <v>4.54718625315792</v>
+        <v>13.959328</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.981686136247225</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9867633043798142</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.298289344023266</v>
+        <v>0.339544</v>
       </c>
       <c r="N2">
-        <v>0.298289344023266</v>
+        <v>1.018632</v>
       </c>
       <c r="O2">
-        <v>0.1768723869684412</v>
+        <v>0.1965227220570919</v>
       </c>
       <c r="P2">
-        <v>0.1768723869684412</v>
+        <v>0.2684097734345912</v>
       </c>
       <c r="Q2">
-        <v>1.356377204606089</v>
+        <v>1.579935355477333</v>
       </c>
       <c r="R2">
-        <v>1.356377204606089</v>
+        <v>14.219418199296</v>
       </c>
       <c r="S2">
-        <v>0.1768723869684412</v>
+        <v>0.1929236317010138</v>
       </c>
       <c r="T2">
-        <v>0.1768723869684412</v>
+        <v>0.2648569149621545</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +581,309 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>4.653109333333333</v>
+      </c>
+      <c r="H3">
+        <v>13.959328</v>
+      </c>
+      <c r="I3">
+        <v>0.981686136247225</v>
+      </c>
+      <c r="J3">
+        <v>0.9867633043798142</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1.3882155</v>
+      </c>
+      <c r="N3">
+        <v>2.776431</v>
+      </c>
+      <c r="O3">
+        <v>0.8034772779429081</v>
+      </c>
+      <c r="P3">
+        <v>0.7315902265654087</v>
+      </c>
+      <c r="Q3">
+        <v>6.459518499727999</v>
+      </c>
+      <c r="R3">
+        <v>38.75711099836799</v>
+      </c>
+      <c r="S3">
+        <v>0.7887625045462112</v>
+      </c>
+      <c r="T3">
+        <v>0.7219063894176596</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.01364166666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.040925</v>
+      </c>
+      <c r="I4">
+        <v>0.002878040055074119</v>
+      </c>
+      <c r="J4">
+        <v>0.002892924948231312</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.339544</v>
+      </c>
+      <c r="N4">
+        <v>1.018632</v>
+      </c>
+      <c r="O4">
+        <v>0.1965227220570919</v>
+      </c>
+      <c r="P4">
+        <v>0.2684097734345912</v>
+      </c>
+      <c r="Q4">
+        <v>0.004631946066666667</v>
+      </c>
+      <c r="R4">
+        <v>0.0416875146</v>
+      </c>
+      <c r="S4">
+        <v>0.0005656002658125085</v>
+      </c>
+      <c r="T4">
+        <v>0.000776489329918043</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.01364166666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.040925</v>
+      </c>
+      <c r="I5">
+        <v>0.002878040055074119</v>
+      </c>
+      <c r="J5">
+        <v>0.002892924948231312</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.3882155</v>
+      </c>
+      <c r="N5">
+        <v>2.776431</v>
+      </c>
+      <c r="O5">
+        <v>0.8034772779429081</v>
+      </c>
+      <c r="P5">
+        <v>0.7315902265654087</v>
+      </c>
+      <c r="Q5">
+        <v>0.0189375731125</v>
+      </c>
+      <c r="R5">
+        <v>0.113625438675</v>
+      </c>
+      <c r="S5">
+        <v>0.00231243978926161</v>
+      </c>
+      <c r="T5">
+        <v>0.002116435618313269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>4.54718625315792</v>
-      </c>
-      <c r="H3">
-        <v>4.54718625315792</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1.38817709167022</v>
-      </c>
-      <c r="N3">
-        <v>1.38817709167022</v>
-      </c>
-      <c r="O3">
-        <v>0.8231276130315589</v>
-      </c>
-      <c r="P3">
-        <v>0.8231276130315589</v>
-      </c>
-      <c r="Q3">
-        <v>6.312299788191567</v>
-      </c>
-      <c r="R3">
-        <v>6.312299788191567</v>
-      </c>
-      <c r="S3">
-        <v>0.8231276130315589</v>
-      </c>
-      <c r="T3">
-        <v>0.8231276130315589</v>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.07316449999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.146329</v>
+      </c>
+      <c r="I6">
+        <v>0.01543582369770094</v>
+      </c>
+      <c r="J6">
+        <v>0.01034377067195454</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.339544</v>
+      </c>
+      <c r="N6">
+        <v>1.018632</v>
+      </c>
+      <c r="O6">
+        <v>0.1965227220570919</v>
+      </c>
+      <c r="P6">
+        <v>0.2684097734345912</v>
+      </c>
+      <c r="Q6">
+        <v>0.024842566988</v>
+      </c>
+      <c r="R6">
+        <v>0.149055401928</v>
+      </c>
+      <c r="S6">
+        <v>0.003033490090265554</v>
+      </c>
+      <c r="T6">
+        <v>0.002776369142518687</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.07316449999999999</v>
+      </c>
+      <c r="H7">
+        <v>0.146329</v>
+      </c>
+      <c r="I7">
+        <v>0.01543582369770094</v>
+      </c>
+      <c r="J7">
+        <v>0.01034377067195454</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.3882155</v>
+      </c>
+      <c r="N7">
+        <v>2.776431</v>
+      </c>
+      <c r="O7">
+        <v>0.8034772779429081</v>
+      </c>
+      <c r="P7">
+        <v>0.7315902265654087</v>
+      </c>
+      <c r="Q7">
+        <v>0.10156809294975</v>
+      </c>
+      <c r="R7">
+        <v>0.4062723717989999</v>
+      </c>
+      <c r="S7">
+        <v>0.01240233360743539</v>
+      </c>
+      <c r="T7">
+        <v>0.007567401529435852</v>
       </c>
     </row>
   </sheetData>
